--- a/elfelf2/evidence.xlsx
+++ b/elfelf2/evidence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caner\Desktop\testnets\game-of-nfts\elf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AF3B73-5176-48A7-B82D-132B268BB469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE89305F-8353-466D-BB2A-7FD22FCAB804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="13" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
   <si>
     <t>TxHash</t>
   </si>
@@ -58,45 +58,12 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>ClassID</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -143,6 +110,201 @@
   </si>
   <si>
     <t>Cosmos</t>
+  </si>
+  <si>
+    <t>479909C891A89309967EDA25ECA5F08C3D0F4E93DF9FAE18CEF61A6779708E65</t>
+  </si>
+  <si>
+    <t>elfynfts</t>
+  </si>
+  <si>
+    <t>elfy001</t>
+  </si>
+  <si>
+    <t>elfy002</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>14AC61471DCF19EFB772D7E00F08AF3BF4AF2F85B4CA8D23EFA0FDB71821C678</t>
+  </si>
+  <si>
+    <t>3C4DB95BC46D9378823CC87EE58CC85239571FEE2D61CE48CC5AE57AFE448E16</t>
+  </si>
+  <si>
+    <t>juno1j0a7tpynsapsxw3fclqf0eu3msgrl76xm5xyhhc0ttzeqxxgjz6que0tjh</t>
+  </si>
+  <si>
+    <t>37A1081019B3BF5C20943317AA4EB2FA2CB8B6E2469492AD046553D426E9E741</t>
+  </si>
+  <si>
+    <t>ibc/F087E2E2B7A740FA053B74E454A986E57A837ADED7B6F2ECDEBCE1123FF7F235</t>
+  </si>
+  <si>
+    <t>7698A9EF0E5B8F04B8B57C02FC7CBB83E950ECE26A93D408621215EFD9D6DB95</t>
+  </si>
+  <si>
+    <t>22F5FC03D2B873367496A46478E607B5DB6889F1389C42F9D5BDCA7793D8DB07</t>
+  </si>
+  <si>
+    <t>E1933FDBDA66A2B5F2A94176296ADC8D26327A6CBBD814D214C11AE400513F64</t>
+  </si>
+  <si>
+    <t>elfy007</t>
+  </si>
+  <si>
+    <t>ibc/02C9D15CA86F309D207AE7DD48B5CF81DF84A475069BB8E2225CBEE44A05CE8A</t>
+  </si>
+  <si>
+    <t>elfy008</t>
+  </si>
+  <si>
+    <t>ibc/42A6D110B65E8BC43AC100A913C3ADC7C842B75F7805CA457B9388C93785545B</t>
+  </si>
+  <si>
+    <t>elfy009</t>
+  </si>
+  <si>
+    <t>ibc/F98EB96B8DB9E3B94D376CB72CBB53399025A36349941DC637BE78FCF7EF5408</t>
+  </si>
+  <si>
+    <t>ibc/4D6A5C61D83055A562AB329131003F08506001C69CC78CEB47DE68F3B3B4B029</t>
+  </si>
+  <si>
+    <t>elfy010</t>
+  </si>
+  <si>
+    <t>elfy011</t>
+  </si>
+  <si>
+    <t>ibc/49CF0081AD40397E89A08A03931668F26451A15BC552865BFEBDF087B3877A3A</t>
+  </si>
+  <si>
+    <t>elfy012</t>
+  </si>
+  <si>
+    <t>ibc/EF330030CB8E331978535A255BC44CF8684A849669AF1251124B5560E0EC897E</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>A548770724BF3FDC8EFB9BC45A475F534754BBB52D370DE9047707E792838380</t>
+  </si>
+  <si>
+    <t>A6BFEFEA25BF497FBBC34EB61D3C6398F3BD3F4CB0181600C1FAC0DBA56EAA69</t>
+  </si>
+  <si>
+    <t>1365FA7B4864F78AD0AB86526D1D76AA6A60CD67E3AAC21966949BA418D33E4E</t>
+  </si>
+  <si>
+    <t>186F21AFAD56A021313942D2B1F2B5AA077216F0F7BC5B02E6440964461D5AD7</t>
+  </si>
+  <si>
+    <t>FBD63D7A9E8A2E856C908B8474DC57D126AC9D5F1513C7F7640EED102AF7F29F</t>
+  </si>
+  <si>
+    <t>69840BE7B50C4C13E3CF52C8A1FA044FEE33EEF3BB96F0F46E99B146DCA22960</t>
+  </si>
+  <si>
+    <t>9B0F787D6C4C7282D6F81A5F87AA1943C4A029F18843E60ADBE76AD9D39AB320</t>
+  </si>
+  <si>
+    <t>2E13EE22B61E5817BA635926F97C435153A020D2ACB6FD2F22202F576A49CC75</t>
+  </si>
+  <si>
+    <t>C771D154FF7D69440B5BA798E987B61504BED0FD053D6709D2EF742CDB879A37</t>
+  </si>
+  <si>
+    <t>BAC941AC468651E725A1A2074ADF3E2F2767984F5B3994B9F4948B5D12B2C484</t>
+  </si>
+  <si>
+    <t>DFCB628B3AD805CD528C8E3205A5276FFE0C35048A6820AA825802044CD9CF98</t>
+  </si>
+  <si>
+    <t>iris q nft owner $IRISADDRESS</t>
+  </si>
+  <si>
+    <t>8C3574BD11B2D40FA8820301ACC730B99A318E09AD2C8AE003B58A07F210EED9</t>
+  </si>
+  <si>
+    <t>BB8B9B469C46EF5D31C05873ECE483B5FF5E31092A76300A5BE53C674E718FD8</t>
+  </si>
+  <si>
+    <t>88E6D49231421D6C97164F06742DC8D70870F9192E53B7E5F17B98AA67FF64B5</t>
+  </si>
+  <si>
+    <t>3624407FD21B9A1908A1087921EB3FEE1D06DBE4268DC031B1004595A4F051C2</t>
+  </si>
+  <si>
+    <t>5A01DDE3EB848EA3A925AB3B091EFB83F9C2DCAA8C616BE74D489B478777EB00</t>
+  </si>
+  <si>
+    <t>E38CA60327D480261F475F3E00B59569BE94C797DDA9AE8D25B4EB6D6AE46DD3</t>
+  </si>
+  <si>
+    <t>120BCDAD31FE06CF8C1D6E7B806B7BD89A71663E0EF6434FB29E34D028343959</t>
+  </si>
+  <si>
+    <t>45D1D2537CC8ECD1B413904A46A2F7BF263935521922739231BA5C3D75B7AA8B</t>
+  </si>
+  <si>
+    <t>4B7BEEF1F2FC9EE11BADE8806AE6FF45A5BFC7482A7C4B598E31F982FAD384E9</t>
+  </si>
+  <si>
+    <t>7FD87841F5CE135E378185D8FC5350C50490ACDEBB424198F6CBA675F6AB7A0D</t>
+  </si>
+  <si>
+    <t>68C8F1631C0368725B124CB35BA3C6FF889013015257F324B9B391EF77C145B3</t>
+  </si>
+  <si>
+    <t>A6FF257BA59DA1DB44AEA6E72D8A6F3CE710DBA4DB842ADE85E4F02321A8F893</t>
+  </si>
+  <si>
+    <t>B8E48A8BA941B5588A18361EFA4E0E218DA0E13D4CE561D421EA8F83DDDE8391</t>
+  </si>
+  <si>
+    <t>5F406095CD6055D2A84062D16BE5E222EB9A40D4CA145447C840BCDFAE6F6336</t>
+  </si>
+  <si>
+    <t>190456F43BCA66022FC0CAA82EF6D5487694A99F8F709F890D2CD989A0E50ED8</t>
+  </si>
+  <si>
+    <t>BDCC199451071765A845AF31FA9272EC805195CFA60A5CA74FCA3DC1A92B8BBE</t>
+  </si>
+  <si>
+    <t>FA4DC2E58E9860988ED02C7678FB662CEF330AB0A96987DD930496E754326276</t>
+  </si>
+  <si>
+    <t>47967F3AC73AF1FCBA9BA241E7F8FB8F866E272C8D63E5FEB39D6F8E105BDE97</t>
+  </si>
+  <si>
+    <t>DA6014798129FAA32751C061F2545475C68637341FF6465975008E2D0234BA7B</t>
+  </si>
+  <si>
+    <t>99720F1ED2A788B6BF381C44FD9FD88DC6F5F3BC174EC35FD6981AC9E44B1AA3</t>
+  </si>
+  <si>
+    <t>AFC57BEACD8AFAD9A469D5C45D638FAD1A4B56C9E4F93121FFF7A59AFEB8D2C9</t>
+  </si>
+  <si>
+    <t>372FD2897A9B0D34EDFD031E87139332AE263097EC61D5ACDC9988D438DD3413</t>
+  </si>
+  <si>
+    <t>7758C69EFCC198103FE2FF0C465B2889962B8EC44AC72372D0B6247C359357C8</t>
+  </si>
+  <si>
+    <t>C1768F346612C0001AE40B4F178EA42FF5A1A62C7AF2A778176F164C05D7E6CF</t>
   </si>
 </sst>
 </file>
@@ -537,8 +699,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,54 +717,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +779,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -627,18 +791,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -653,7 +817,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -663,18 +829,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -689,7 +855,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -699,18 +867,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -725,7 +893,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -735,18 +905,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -759,9 +929,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -779,20 +951,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -805,9 +991,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -825,20 +1013,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -851,9 +1053,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -871,20 +1075,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -897,9 +1115,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -917,20 +1137,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -943,9 +1177,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -963,20 +1199,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -989,9 +1239,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1009,20 +1261,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1037,7 +1303,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1049,15 +1317,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1070,9 +1338,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1090,20 +1360,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1116,9 +1416,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1136,20 +1438,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1298,9 +1630,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1313,21 +1647,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1342,7 +1687,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1356,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1367,16 +1714,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1391,7 +1738,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1405,10 +1754,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1416,16 +1765,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1440,7 +1789,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1454,10 +1805,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1465,16 +1816,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1489,7 +1840,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1504,10 +1857,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1515,16 +1868,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1539,7 +1892,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1549,18 +1904,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1575,7 +1930,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1585,18 +1942,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/elfelf2/evidence.xlsx
+++ b/elfelf2/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caner\Desktop\testnets\game-of-nfts\elf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE89305F-8353-466D-BB2A-7FD22FCAB804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BDA616-3FCB-45F8-87FD-FF788766A95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="13" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="13" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="91">
   <si>
     <t>TxHash</t>
   </si>
@@ -305,6 +305,18 @@
   </si>
   <si>
     <t>C1768F346612C0001AE40B4F178EA42FF5A1A62C7AF2A778176F164C05D7E6CF</t>
+  </si>
+  <si>
+    <t>153F00448B498D075275CBF3920DE0595CADF456882AB910F4B3DF3A02AF28BA</t>
+  </si>
+  <si>
+    <t>AA91456F6E8236530C926B759D1BB576499A9BE18065088FD3E77F2DB03FA27E</t>
+  </si>
+  <si>
+    <t>717B18D0295ED14D941E4DC7A629488464521E8795FFB5B7BCBDBFF83791874D</t>
+  </si>
+  <si>
+    <t>B5D8EC25EBCD83A8BB2AD95C60F32BB4E1E04707EE1359955D08C91D1F99DA2C</t>
   </si>
 </sst>
 </file>
@@ -1418,8 +1430,8 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1508,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1510,12 +1524,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1530,7 +1544,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1544,12 +1560,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/elfelf2/evidence.xlsx
+++ b/elfelf2/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caner\Desktop\testnets\game-of-nfts\elf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BDA616-3FCB-45F8-87FD-FF788766A95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB496AB7-0CB8-4B96-B185-2E70C6453519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="13" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="13" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,23 +38,18 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="95">
   <si>
     <t>TxHash</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
@@ -317,6 +312,24 @@
   </si>
   <si>
     <t>B5D8EC25EBCD83A8BB2AD95C60F32BB4E1E04707EE1359955D08C91D1F99DA2C</t>
+  </si>
+  <si>
+    <t>491D20AFDEFE6A383249BF1551D080FCF1FE7ED207541BCB9ED4DC7199B8C0F9</t>
+  </si>
+  <si>
+    <t>73ABDAA5F7620413FE46EFB005051D7E46FEF9C2A090684349C52AD9B4EDA369</t>
+  </si>
+  <si>
+    <t>6D6653C42C29E7144665F8BE03B9CEBF96B3B965E37A22FFF4339B04A9E34949</t>
+  </si>
+  <si>
+    <t>289C0AFF2ADCA5172A2E9849ECCFFEA2120D599428F3BAD5BB61C1DB34F2370F</t>
+  </si>
+  <si>
+    <t>3147ACC180D0FF0177E1D5EF92097EA73FACEB3C7A78E57D73ABEC92605C868B</t>
+  </si>
+  <si>
+    <t>B5C96EFF4BE634B84DC9FA1551BBE6E1AE521C0DAAD044A2622D56A46D3A45C7</t>
   </si>
 </sst>
 </file>
@@ -729,54 +742,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -803,18 +816,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -841,18 +854,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -879,10 +892,48 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -898,15 +949,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,34 +968,58 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,48 +1033,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1020,48 +1095,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1082,48 +1157,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1144,48 +1219,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1206,55 +1281,92 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,92 +1380,71 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,133 +1458,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1523,6 +1536,42 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>87</v>
       </c>
@@ -1537,15 +1586,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,14 +1622,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1594,46 +1645,42 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C30B6F-210C-4EF1-92E0-F564E13FCE9A}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1663,32 +1710,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1719,27 +1766,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1770,27 +1817,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1821,27 +1868,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1873,27 +1920,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1920,10 +1967,48 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1937,42 +2022,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>